--- a/natmiOut/OldD0/LR-pairs_lrc2p/Fgf2-Fgfr2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Fgf2-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.683366466943602</v>
+        <v>0.747119</v>
       </c>
       <c r="H2">
-        <v>0.683366466943602</v>
+        <v>2.241357</v>
       </c>
       <c r="I2">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="J2">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.938071848835358</v>
+        <v>0.09433999999999999</v>
       </c>
       <c r="N2">
-        <v>0.938071848835358</v>
+        <v>0.28302</v>
       </c>
       <c r="O2">
-        <v>0.554835360814279</v>
+        <v>0.05191071108246543</v>
       </c>
       <c r="P2">
-        <v>0.554835360814279</v>
+        <v>0.05191071108246543</v>
       </c>
       <c r="Q2">
-        <v>0.6410468450778714</v>
+        <v>0.07048320645999999</v>
       </c>
       <c r="R2">
-        <v>0.6410468450778714</v>
+        <v>0.63434885814</v>
       </c>
       <c r="S2">
-        <v>0.01586178794240324</v>
+        <v>0.001607651286910868</v>
       </c>
       <c r="T2">
-        <v>0.01586178794240324</v>
+        <v>0.001607651286910868</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.683366466943602</v>
+        <v>0.747119</v>
       </c>
       <c r="H3">
-        <v>0.683366466943602</v>
+        <v>2.241357</v>
       </c>
       <c r="I3">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="J3">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.752649246263266</v>
+        <v>0.9431116666666667</v>
       </c>
       <c r="N3">
-        <v>0.752649246263266</v>
+        <v>2.829335</v>
       </c>
       <c r="O3">
-        <v>0.445164639185721</v>
+        <v>0.5189484550226392</v>
       </c>
       <c r="P3">
-        <v>0.445164639185721</v>
+        <v>0.5189484550226391</v>
       </c>
       <c r="Q3">
-        <v>0.5143352562666932</v>
+        <v>0.7046166452883333</v>
       </c>
       <c r="R3">
-        <v>0.5143352562666932</v>
+        <v>6.341549807594999</v>
       </c>
       <c r="S3">
-        <v>0.01272649078432464</v>
+        <v>0.01607159937054611</v>
       </c>
       <c r="T3">
-        <v>0.01272649078432464</v>
+        <v>0.01607159937054611</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.5922617627955</v>
+        <v>0.747119</v>
       </c>
       <c r="H4">
-        <v>19.5922617627955</v>
+        <v>2.241357</v>
       </c>
       <c r="I4">
-        <v>0.8196320236006495</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="J4">
-        <v>0.8196320236006495</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.938071848835358</v>
+        <v>0.7798996666666667</v>
       </c>
       <c r="N4">
-        <v>0.938071848835358</v>
+        <v>2.339699</v>
       </c>
       <c r="O4">
-        <v>0.554835360814279</v>
+        <v>0.4291408338948954</v>
       </c>
       <c r="P4">
-        <v>0.554835360814279</v>
+        <v>0.4291408338948954</v>
       </c>
       <c r="Q4">
-        <v>18.37894921469186</v>
+        <v>0.5826778590603333</v>
       </c>
       <c r="R4">
-        <v>18.37894921469186</v>
+        <v>5.244100731543</v>
       </c>
       <c r="S4">
-        <v>0.4547608295494039</v>
+        <v>0.0132902978882555</v>
       </c>
       <c r="T4">
-        <v>0.4547608295494039</v>
+        <v>0.0132902978882555</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.5922617627955</v>
+        <v>19.74619233333334</v>
       </c>
       <c r="H5">
-        <v>19.5922617627955</v>
+        <v>59.23857700000001</v>
       </c>
       <c r="I5">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="J5">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.752649246263266</v>
+        <v>0.09433999999999999</v>
       </c>
       <c r="N5">
-        <v>0.752649246263266</v>
+        <v>0.28302</v>
       </c>
       <c r="O5">
-        <v>0.445164639185721</v>
+        <v>0.05191071108246543</v>
       </c>
       <c r="P5">
-        <v>0.445164639185721</v>
+        <v>0.05191071108246543</v>
       </c>
       <c r="Q5">
-        <v>14.74610104836064</v>
+        <v>1.862855784726667</v>
       </c>
       <c r="R5">
-        <v>14.74610104836064</v>
+        <v>16.76570206254</v>
       </c>
       <c r="S5">
-        <v>0.3648711940512455</v>
+        <v>0.04248987312097919</v>
       </c>
       <c r="T5">
-        <v>0.3648711940512455</v>
+        <v>0.04248987312097919</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.6281007591876</v>
+        <v>19.74619233333334</v>
       </c>
       <c r="H6">
-        <v>3.6281007591876</v>
+        <v>59.23857700000001</v>
       </c>
       <c r="I6">
-        <v>0.1517796976726226</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="J6">
-        <v>0.1517796976726226</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.938071848835358</v>
+        <v>0.9431116666666667</v>
       </c>
       <c r="N6">
-        <v>0.938071848835358</v>
+        <v>2.829335</v>
       </c>
       <c r="O6">
-        <v>0.554835360814279</v>
+        <v>0.5189484550226392</v>
       </c>
       <c r="P6">
-        <v>0.554835360814279</v>
+        <v>0.5189484550226391</v>
       </c>
       <c r="Q6">
-        <v>3.403419186932078</v>
+        <v>18.62286436181056</v>
       </c>
       <c r="R6">
-        <v>3.403419186932078</v>
+        <v>167.605779256295</v>
       </c>
       <c r="S6">
-        <v>0.08421274332247176</v>
+        <v>0.424768868513694</v>
       </c>
       <c r="T6">
-        <v>0.08421274332247176</v>
+        <v>0.4247688685136939</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.6281007591876</v>
+        <v>19.74619233333334</v>
       </c>
       <c r="H7">
-        <v>3.6281007591876</v>
+        <v>59.23857700000001</v>
       </c>
       <c r="I7">
-        <v>0.1517796976726226</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="J7">
-        <v>0.1517796976726226</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.752649246263266</v>
+        <v>0.7798996666666667</v>
       </c>
       <c r="N7">
-        <v>0.752649246263266</v>
+        <v>2.339699</v>
       </c>
       <c r="O7">
-        <v>0.445164639185721</v>
+        <v>0.4291408338948954</v>
       </c>
       <c r="P7">
-        <v>0.445164639185721</v>
+        <v>0.4291408338948954</v>
       </c>
       <c r="Q7">
-        <v>2.730687301769731</v>
+        <v>15.40004881870256</v>
       </c>
       <c r="R7">
-        <v>2.730687301769731</v>
+        <v>138.600439368323</v>
       </c>
       <c r="S7">
-        <v>0.06756695435015087</v>
+        <v>0.3512596765291566</v>
       </c>
       <c r="T7">
-        <v>0.06756695435015087</v>
+        <v>0.3512596765291566</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.630999</v>
+      </c>
+      <c r="H8">
+        <v>10.892997</v>
+      </c>
+      <c r="I8">
+        <v>0.1505120332904577</v>
+      </c>
+      <c r="J8">
+        <v>0.1505120332904577</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.09433999999999999</v>
+      </c>
+      <c r="N8">
+        <v>0.28302</v>
+      </c>
+      <c r="O8">
+        <v>0.05191071108246543</v>
+      </c>
+      <c r="P8">
+        <v>0.05191071108246543</v>
+      </c>
+      <c r="Q8">
+        <v>0.3425484456599999</v>
+      </c>
+      <c r="R8">
+        <v>3.08293601094</v>
+      </c>
+      <c r="S8">
+        <v>0.007813186674575368</v>
+      </c>
+      <c r="T8">
+        <v>0.007813186674575368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.630999</v>
+      </c>
+      <c r="H9">
+        <v>10.892997</v>
+      </c>
+      <c r="I9">
+        <v>0.1505120332904577</v>
+      </c>
+      <c r="J9">
+        <v>0.1505120332904577</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.9431116666666667</v>
+      </c>
+      <c r="N9">
+        <v>2.829335</v>
+      </c>
+      <c r="O9">
+        <v>0.5189484550226392</v>
+      </c>
+      <c r="P9">
+        <v>0.5189484550226391</v>
+      </c>
+      <c r="Q9">
+        <v>3.424437518555</v>
+      </c>
+      <c r="R9">
+        <v>30.819937666995</v>
+      </c>
+      <c r="S9">
+        <v>0.07810798713839905</v>
+      </c>
+      <c r="T9">
+        <v>0.07810798713839905</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.630999</v>
+      </c>
+      <c r="H10">
+        <v>10.892997</v>
+      </c>
+      <c r="I10">
+        <v>0.1505120332904577</v>
+      </c>
+      <c r="J10">
+        <v>0.1505120332904577</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.7798996666666667</v>
+      </c>
+      <c r="N10">
+        <v>2.339699</v>
+      </c>
+      <c r="O10">
+        <v>0.4291408338948954</v>
+      </c>
+      <c r="P10">
+        <v>0.4291408338948954</v>
+      </c>
+      <c r="Q10">
+        <v>2.831814909767</v>
+      </c>
+      <c r="R10">
+        <v>25.486334187903</v>
+      </c>
+      <c r="S10">
+        <v>0.06459085947748326</v>
+      </c>
+      <c r="T10">
+        <v>0.06459085947748328</v>
       </c>
     </row>
   </sheetData>
